--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>mkjn@gmail.com</v>
+        <v>gagan995g@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>mkjn@gmail.com</v>
+        <v>wertykjhgfdaasdfghmkjn@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -695,15 +695,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Gagandeep</v>
+        <v>SK</v>
       </c>
       <c r="B1" t="str">
-        <v>wertykjhgfdaasdfghmkjn@gmail.com</v>
+        <v>RKRS121345678@gmail.cm</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Kanta</v>
+        <v>RS</v>
       </c>
       <c r="B2" t="str">
         <v>Qwertasdf@#$7654</v>

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -688,7 +688,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>gagan995g@gmail.com</v>
+        <v>gwggggytdcggn995g@gmail.com</v>
       </c>
     </row>
     <row r="2">
@@ -717,9 +717,14 @@
         <v>Qwertasdf@#$7654</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>gagan995g@gmail.com</v>
+        <v>gaga4nrt95g@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>gaga4nrt95g@gmail.com</v>
+        <v>gggg457aaa@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>SK</v>
       </c>
       <c r="B1" t="str">
-        <v>RKRS121345678@gmail.cm</v>
+        <v>RKR5678@gmail.cm</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -12,6 +12,7 @@
     <sheet name="AssertContainsData" sheetId="7" r:id="rId7"/>
     <sheet name="LoginSheet" sheetId="8" r:id="rId8"/>
     <sheet name="InputData" sheetId="9" r:id="rId9"/>
+    <sheet name="sheet11" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -494,6 +495,19 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
@@ -698,7 +712,7 @@
         <v>SK</v>
       </c>
       <c r="B1" t="str">
-        <v>RKR5678@gmail.cm</v>
+        <v>RKaasdsdfghjg@gmail.cm</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -712,7 +712,7 @@
         <v>SK</v>
       </c>
       <c r="B1" t="str">
-        <v>RKaasdsdfghjg@gmail.cm</v>
+        <v>RSSdfghjklrtyS@gmail.cm</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>gagan995g@gmail.com</v>
+        <v>pokjnijuhnb@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>gggg457aaa@gmail.com</v>
+        <v>ggg2gy469aaa@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>ggg2gy469aaa@gmail.com</v>
+        <v>ggg3gy469aaa@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>pokjnijuhnb@gmail.com</v>
+        <v>sdnb@gmail.com</v>
       </c>
     </row>
     <row r="2">

--- a/Project/testdata/data.xlsx
+++ b/Project/testdata/data.xlsx
@@ -698,7 +698,7 @@
         <v>Gagandeep</v>
       </c>
       <c r="B1" t="str">
-        <v>ggg3gy469aaa@gmail.com</v>
+        <v>ggg5gy469aaa@gmail.com</v>
       </c>
     </row>
     <row r="2">
